--- a/业绩报表/300646.xlsx
+++ b/业绩报表/300646.xlsx
@@ -644,34 +644,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.27</v>
+        <v>0.33</v>
       </c>
       <c r="J2" t="n">
-        <v>0.26</v>
+        <v>0.32</v>
       </c>
       <c r="K2" t="n">
-        <v>330780843.67</v>
+        <v>528443972.8</v>
       </c>
       <c r="L2" t="n">
-        <v>98051165.12</v>
+        <v>118314419.64</v>
       </c>
       <c r="M2" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+        <v>30.58</v>
+      </c>
+      <c r="N2" t="n">
+        <v>38.1847841003</v>
+      </c>
+      <c r="O2" t="n">
+        <v>174.3360536531</v>
+      </c>
       <c r="P2" t="n">
-        <v>1.388058541031</v>
+        <v>4.979815487444</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.256841734289</v>
+        <v>1.788484622111</v>
       </c>
       <c r="R2" t="n">
-        <v>46.4484455978</v>
+        <v>54.6858341138</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -700,27 +704,27 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2020Q2</t>
+          <t>2017Q4</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2020年 半年报</t>
+          <t>2017年 年报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>半年报</t>
+          <t>年报</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/业绩报表/300646.xlsx
+++ b/业绩报表/300646.xlsx
@@ -644,38 +644,34 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.33</v>
+        <v>0.27</v>
       </c>
       <c r="J2" t="n">
-        <v>0.32</v>
+        <v>0.26</v>
       </c>
       <c r="K2" t="n">
-        <v>528443972.8</v>
+        <v>330780843.67</v>
       </c>
       <c r="L2" t="n">
-        <v>118314419.64</v>
+        <v>98051165.12</v>
       </c>
       <c r="M2" t="n">
-        <v>30.58</v>
-      </c>
-      <c r="N2" t="n">
-        <v>38.1847841003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>174.3360536531</v>
-      </c>
+        <v>12.49</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
       <c r="P2" t="n">
-        <v>4.979815487444</v>
+        <v>1.388058541031</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.788484622111</v>
+        <v>0.256841734289</v>
       </c>
       <c r="R2" t="n">
-        <v>54.6858341138</v>
+        <v>46.4484455978</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -704,27 +700,27 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2017Q4</t>
+          <t>2020Q2</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2017年 年报</t>
+          <t>2020年 半年报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>年报</t>
+          <t>半年报</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">

--- a/业绩报表/300646.xlsx
+++ b/业绩报表/300646.xlsx
@@ -644,34 +644,38 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.27</v>
+        <v>0.73</v>
       </c>
       <c r="J2" t="n">
-        <v>0.26</v>
+        <v>0.71</v>
       </c>
       <c r="K2" t="n">
-        <v>330780843.67</v>
+        <v>779287856.16</v>
       </c>
       <c r="L2" t="n">
-        <v>98051165.12</v>
+        <v>262013571.95</v>
       </c>
       <c r="M2" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
+        <v>36.55</v>
+      </c>
+      <c r="N2" t="n">
+        <v>6.2308604641</v>
+      </c>
+      <c r="O2" t="n">
+        <v>14.7278094268</v>
+      </c>
       <c r="P2" t="n">
-        <v>1.388058541031</v>
+        <v>8.336805892556001</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.256841734289</v>
+        <v>2.913204943444</v>
       </c>
       <c r="R2" t="n">
-        <v>46.4484455978</v>
+        <v>59.4973922916</v>
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="inlineStr"/>
@@ -700,27 +704,27 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2020Q2</t>
+          <t>2019Q4</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>2020年 半年报</t>
+          <t>2019年 年报</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>半年报</t>
+          <t>年报</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
